--- a/horaire de programmation.xlsx
+++ b/horaire de programmation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21315" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21315" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Ouverture</t>
   </si>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -807,12 +807,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickTop="1">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.88958333333333339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.8881944444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.8881944444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
